--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -19,113 +19,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>descripiton</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>buffName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iconName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isPos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxLayer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>layId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isDeadRemove</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>initialRemainRound</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>exType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attrsAdd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attrsMul</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isDiz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isSlience</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isUnarm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isAffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxAffectTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectPhase</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectHurtId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectCaseBuffId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectCaseBuffTargetType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectCaseBuffLayer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -195,20 +191,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -499,79 +492,212 @@
     <col min="5" max="16384" width="9.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="11460"/>
+    <workbookView windowWidth="25460" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,105 +14,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffName</t>
+  </si>
+  <si>
+    <t>iconName</t>
   </si>
   <si>
     <t>descripiton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iconName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isPos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxLayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>layId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isDeadRemove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>initialRemainRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>exType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attrsAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>attrsMul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isDiz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isSlience</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isUnarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isAffect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxAffectTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectPhase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectHurtId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectCaseBuffId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectCaseBuffTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>affectCaseBuffLayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
   </si>
   <si>
     <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,16 +107,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -143,12 +116,155 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +273,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -172,22 +474,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -195,27 +739,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -473,232 +1061,232 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="3" width="9.375" style="2"/>
-    <col min="4" max="4" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.375" style="2"/>
+    <col min="1" max="3" width="9.375" style="3"/>
+    <col min="4" max="4" width="11.25" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:22">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>22</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1">
+    <row r="3" s="2" customFormat="1" spans="1:22">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -1,25 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="11460"/>
+    <workbookView windowWidth="25460" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>yang</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t>yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+0:常规
+1:隐藏
+2:被动技能</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t>yang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="方正书宋_GBK"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+0:附加单位回合开始时
+1:有人被上buff时
+2:有人倍伤害时</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +84,7 @@
     <t>iconName</t>
   </si>
   <si>
-    <t>descripiton</t>
+    <t>description</t>
   </si>
   <si>
     <t>isPos</t>
@@ -45,7 +99,7 @@
     <t>isDeadRemove</t>
   </si>
   <si>
-    <t>initialRemainRound</t>
+    <t>initRemRound</t>
   </si>
   <si>
     <t>exType</t>
@@ -78,26 +132,98 @@
     <t>affectHurtId</t>
   </si>
   <si>
-    <t>affectCaseBuffId</t>
-  </si>
-  <si>
-    <t>affectCaseBuffTargetType</t>
-  </si>
-  <si>
-    <t>affectCaseBuffLayer</t>
+    <t>affectBuffIds</t>
+  </si>
+  <si>
+    <t>affectSkillId</t>
+  </si>
+  <si>
+    <t>isAffectSkillPreSetTarget</t>
   </si>
   <si>
     <t>str</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>int_ls</t>
+  </si>
+  <si>
+    <t>激怒</t>
+  </si>
+  <si>
+    <t>bufficontest_png</t>
+  </si>
+  <si>
+    <t>就是激怒</t>
+  </si>
+  <si>
+    <t>Ap:10,PierceAr:5</t>
+  </si>
+  <si>
+    <t>Ap:0.5,PierceAr:0.5</t>
+  </si>
+  <si>
+    <t>水之交</t>
+  </si>
+  <si>
+    <t>啦啦啦</t>
+  </si>
+  <si>
+    <t>属性列表</t>
+  </si>
+  <si>
+    <t>Ap,</t>
+  </si>
+  <si>
+    <t>MaxShield,</t>
+  </si>
+  <si>
+    <t>MaxHp,</t>
+  </si>
+  <si>
+    <t>ArMagic,</t>
+  </si>
+  <si>
+    <t>ArPys,</t>
+  </si>
+  <si>
+    <t>PierceAr,</t>
+  </si>
+  <si>
+    <t>Hp,</t>
+  </si>
+  <si>
+    <t>Shield,</t>
+  </si>
+  <si>
+    <t>PysDamageReduceAbs,</t>
+  </si>
+  <si>
+    <t>PysDamageReducePerc,</t>
+  </si>
+  <si>
+    <t>MagicDamageReduceAbs,</t>
+  </si>
+  <si>
+    <t>MagicDamageReducePerc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,13 +245,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,12 +398,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -162,13 +612,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,18 +873,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -450,26 +1192,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="3" width="9.375" style="3"/>
+    <col min="1" max="2" width="9.375" style="3"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.375" style="3"/>
+    <col min="5" max="7" width="9.375" style="3"/>
+    <col min="8" max="8" width="11.8333333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.6666666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="3"/>
+    <col min="11" max="11" width="13.3333333333333" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15" style="3" customWidth="1"/>
+    <col min="13" max="21" width="9.375" style="3"/>
+    <col min="22" max="22" width="18" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,10 +1236,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -506,176 +1257,300 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:21">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1</v>
-      </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
         <v>1</v>
       </c>
       <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U3" s="2">
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="V3" s="2">
-        <v>1</v>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +25,15 @@
     <author>yang</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="方正书宋_GBK"/>
-            <charset val="0"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>yang:</t>
         </r>
@@ -35,7 +41,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="方正书宋_GBK"/>
-            <charset val="0"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0:常规
@@ -44,14 +51,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="方正书宋_GBK"/>
-            <charset val="0"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>yang:</t>
         </r>
@@ -59,7 +67,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="方正书宋_GBK"/>
-            <charset val="0"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 0:附加单位回合开始时
@@ -73,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -150,9 +159,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>int_ls</t>
-  </si>
-  <si>
     <t>激怒</t>
   </si>
   <si>
@@ -211,19 +217,16 @@
   </si>
   <si>
     <t>MagicDamageReducePerc</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +237,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -241,155 +245,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,13 +279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,182 +295,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -612,251 +319,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -880,61 +345,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1192,35 +613,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9.375" style="3"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="3" customWidth="1"/>
     <col min="5" max="7" width="9.375" style="3"/>
-    <col min="8" max="8" width="11.8333333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.6666666666667" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.375" style="3"/>
-    <col min="11" max="11" width="13.3333333333333" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="3" customWidth="1"/>
     <col min="12" max="12" width="15" style="3" customWidth="1"/>
     <col min="13" max="21" width="9.375" style="3"/>
     <col min="22" max="22" width="18" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:22">
+    <row r="2" spans="1:22" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1347,7 +768,7 @@
         <v>24</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U2" s="5" t="s">
         <v>24</v>
@@ -1356,18 +777,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    <row r="3" spans="1:22" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>1</v>
@@ -1388,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="M3" s="2" t="b">
         <v>0</v>
@@ -1421,18 +842,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:22">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>1</v>
@@ -1453,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M4" s="3" t="b">
         <v>0</v>
@@ -1466,91 +887,90 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -138,94 +138,100 @@
     <t>affectPhase</t>
   </si>
   <si>
+    <t>affectBuffIds</t>
+  </si>
+  <si>
+    <t>affectSkillId</t>
+  </si>
+  <si>
+    <t>isAffectSkillPreSetTarget</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>激怒</t>
+  </si>
+  <si>
+    <t>bufficontest_png</t>
+  </si>
+  <si>
+    <t>就是激怒</t>
+  </si>
+  <si>
+    <t>Ap:10,PierceAr:5</t>
+  </si>
+  <si>
+    <t>水之交</t>
+  </si>
+  <si>
+    <t>啦啦啦</t>
+  </si>
+  <si>
+    <t>属性列表</t>
+  </si>
+  <si>
+    <t>Ap,</t>
+  </si>
+  <si>
+    <t>MaxShield,</t>
+  </si>
+  <si>
+    <t>MaxHp,</t>
+  </si>
+  <si>
+    <t>ArMagic,</t>
+  </si>
+  <si>
+    <t>ArPys,</t>
+  </si>
+  <si>
+    <t>PierceAr,</t>
+  </si>
+  <si>
+    <t>Hp,</t>
+  </si>
+  <si>
+    <t>Shield,</t>
+  </si>
+  <si>
+    <t>PysDamageReduceAbs,</t>
+  </si>
+  <si>
+    <t>PysDamageReducePerc,</t>
+  </si>
+  <si>
+    <t>MagicDamageReduceAbs,</t>
+  </si>
+  <si>
+    <t>MagicDamageReducePerc</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>Ap:10,PierceAr:5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ap:0.5,PierceAr:0.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>affectHurtId</t>
-  </si>
-  <si>
-    <t>affectBuffIds</t>
-  </si>
-  <si>
-    <t>affectSkillId</t>
-  </si>
-  <si>
-    <t>isAffectSkillPreSetTarget</t>
-  </si>
-  <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>激怒</t>
-  </si>
-  <si>
-    <t>bufficontest_png</t>
-  </si>
-  <si>
-    <t>就是激怒</t>
-  </si>
-  <si>
-    <t>Ap:10,PierceAr:5</t>
-  </si>
-  <si>
-    <t>Ap:0.5,PierceAr:0.5</t>
-  </si>
-  <si>
-    <t>水之交</t>
-  </si>
-  <si>
-    <t>啦啦啦</t>
-  </si>
-  <si>
-    <t>属性列表</t>
-  </si>
-  <si>
-    <t>Ap,</t>
-  </si>
-  <si>
-    <t>MaxShield,</t>
-  </si>
-  <si>
-    <t>MaxHp,</t>
-  </si>
-  <si>
-    <t>ArMagic,</t>
-  </si>
-  <si>
-    <t>ArPys,</t>
-  </si>
-  <si>
-    <t>PierceAr,</t>
-  </si>
-  <si>
-    <t>Hp,</t>
-  </si>
-  <si>
-    <t>Shield,</t>
-  </si>
-  <si>
-    <t>PysDamageReduceAbs,</t>
-  </si>
-  <si>
-    <t>PysDamageReducePerc,</t>
-  </si>
-  <si>
-    <t>MagicDamageReduceAbs,</t>
-  </si>
-  <si>
-    <t>MagicDamageReducePerc</t>
-  </si>
-  <si>
-    <t>int[]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -621,14 +627,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="2" width="9.375" style="3"/>
-    <col min="3" max="3" width="13" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="3"/>
+    <col min="2" max="2" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="3" customWidth="1"/>
     <col min="5" max="7" width="9.375" style="3"/>
     <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
@@ -636,8 +643,13 @@
     <col min="10" max="10" width="9.375" style="3"/>
     <col min="11" max="11" width="13.375" style="3" customWidth="1"/>
     <col min="12" max="12" width="15" style="3" customWidth="1"/>
-    <col min="13" max="21" width="9.375" style="3"/>
-    <col min="22" max="22" width="18" style="3" customWidth="1"/>
+    <col min="13" max="15" width="9.375" style="3"/>
+    <col min="16" max="16" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.375" style="3"/>
+    <col min="21" max="21" width="13.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.875" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
@@ -697,84 +709,84 @@
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="O2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="R2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="S2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1">
@@ -782,13 +794,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>1</v>
@@ -803,25 +815,16 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="b">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2" t="b">
         <v>1</v>
@@ -847,13 +850,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>1</v>
@@ -874,16 +877,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="b">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -906,67 +900,67 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="12360"/>
+    <workbookView windowWidth="25460" windowHeight="9640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +20,13 @@
     <author>yang</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="方正书宋_GBK"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>yang:</t>
@@ -41,7 +35,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="方正书宋_GBK"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +44,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="方正书宋_GBK"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>yang:</t>
@@ -67,7 +59,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="方正书宋_GBK"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>id</t>
   </si>
@@ -138,6 +129,9 @@
     <t>affectPhase</t>
   </si>
   <si>
+    <t>affectHurtId</t>
+  </si>
+  <si>
     <t>affectBuffIds</t>
   </si>
   <si>
@@ -156,6 +150,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>激怒</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
     <t>Ap:10,PierceAr:5</t>
   </si>
   <si>
+    <t>Ap:0.5,PierceAr:0.5</t>
+  </si>
+  <si>
     <t>水之交</t>
   </si>
   <si>
@@ -211,28 +211,19 @@
   </si>
   <si>
     <t>MagicDamageReducePerc</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>Ap:10,PierceAr:5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ap:0.5,PierceAr:0.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>affectHurtId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,7 +234,6 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -251,32 +241,155 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,13 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,8 +414,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -325,9 +624,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -351,17 +892,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -619,23 +1204,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
-    <col min="2" max="2" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="3" customWidth="1"/>
     <col min="5" max="7" width="9.375" style="3"/>
     <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
@@ -644,16 +1229,16 @@
     <col min="11" max="11" width="13.375" style="3" customWidth="1"/>
     <col min="12" max="12" width="15" style="3" customWidth="1"/>
     <col min="13" max="15" width="9.375" style="3"/>
-    <col min="16" max="16" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.25" style="3" customWidth="1"/>
     <col min="19" max="20" width="9.375" style="3"/>
-    <col min="21" max="21" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="24.875" style="3" customWidth="1"/>
     <col min="23" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,98 +1294,98 @@
         <v>17</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="Q2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1">
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:20">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>1</v>
@@ -821,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P3" s="2" t="b">
         <v>1</v>
@@ -836,27 +1421,24 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="2">
         <v>2</v>
       </c>
-      <c r="U3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="b">
         <v>1</v>
@@ -877,94 +1459,95 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="19" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>id</t>
   </si>
@@ -159,19 +159,10 @@
     <t>bufficontest_png</t>
   </si>
   <si>
-    <t>就是激怒</t>
-  </si>
-  <si>
-    <t>Ap:10,PierceAr:5</t>
-  </si>
-  <si>
-    <t>Ap:0.5,PierceAr:0.5</t>
-  </si>
-  <si>
-    <t>水之交</t>
-  </si>
-  <si>
-    <t>啦啦啦</t>
+    <t>增加20点攻击，并在回合开始对自己造成攻击1.5倍的物理伤害，并再增加一层相同buff，然后对最近的敌方目标发起一次普通攻击，持续3回合，如果因该buff死亡将倍排除除游戏外</t>
+  </si>
+  <si>
+    <t>Ap:20</t>
   </si>
   <si>
     <t>属性列表</t>
@@ -218,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -266,6 +257,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -276,6 +290,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -285,43 +315,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,23 +328,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -359,9 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,23 +379,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,7 +407,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,25 +437,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,145 +557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +607,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -651,9 +633,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,26 +672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -708,17 +687,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,145 +700,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1210,13 +1183,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
@@ -1374,7 +1347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:20">
+    <row r="3" s="2" customFormat="1" spans="1:21">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1408,58 +1381,24 @@
       <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="P3" s="2" t="b">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="b">
+      <c r="U3" s="2">
         <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1483,67 +1422,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -209,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -252,6 +252,121 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,121 +379,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -407,49 +407,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,25 +515,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,85 +557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,11 +607,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,198 +695,144 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="2"/>
@@ -1361,7 +1361,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
@@ -1381,7 +1381,6 @@
       <c r="K3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2"/>
       <c r="P3" s="2" t="b">
         <v>1</v>
       </c>

--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -1,26 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8EA66-06A7-4336-A23C-CD439663B6E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Yang Liu</author>
     <author>yang</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FB99308F-3E63-48C4-8C98-1E83E17E3D18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+初始剩余持续回合</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +77,70 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{220CB6E7-AB52-4F8B-82E6-8A8F6FFE5BE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+ "Ap": AttrName.Ap,
+ "MaxShield": AttrName.MaxShield,
+ "MaxHp": AttrName.MaxHp,
+ "ArMagic": AttrName.ArMagic,
+ "ArPys": AttrName.ArPys,
+ "PierceAr": AttrName.PierceAr,
+ "Hp": AttrName.Hp,
+ "Shield": AttrName.Shield,
+ "PysDamageReduceAbs": AttrName.PysDamageReduceAbs,
+ "PysDamageReducePerc": AttrName.PysDamageReducePerc,
+ "MagicDamageReduceAbs": AttrName.PysDamageReduceAbs,
+ "MagicDamageReducePerc": AttrName.MagicDamageReducePerc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{AFDF1FBB-3EA7-4098-9498-9092B15AA3EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1表示无穷，不要填0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,6 +161,33 @@
 0:附加单位回合开始时
 1:有人被上buff时
 2:有人倍伤害时</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{CC763380-9DF2-4A8E-8D54-1AF92F6DEFBD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Yang Liu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果触发时机是有人受伤害，就是被伤害的人；
+这里都是有特定的条件的，有新增的就往里加</t>
         </r>
       </text>
     </comment>
@@ -73,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -153,18 +276,9 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>激怒</t>
-  </si>
-  <si>
     <t>bufficontest_png</t>
   </si>
   <si>
-    <t>增加20点攻击，并在回合开始对自己造成攻击1.5倍的物理伤害，并再增加一层相同buff，然后对最近的敌方目标发起一次普通攻击，持续3回合，如果因该buff死亡将倍排除除游戏外</t>
-  </si>
-  <si>
-    <t>Ap:20</t>
-  </si>
-  <si>
     <t>属性列表</t>
   </si>
   <si>
@@ -202,19 +316,49 @@
   </si>
   <si>
     <t>MagicDamageReducePerc</t>
+  </si>
+  <si>
+    <t>低级强化</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>增加1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0%的攻击</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p:0.1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,151 +380,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,13 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,176 +445,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -597,255 +469,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,62 +494,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1177,19 +766,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
@@ -1211,7 +800,7 @@
     <col min="23" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" spans="1:22" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:22">
+    <row r="2" spans="1:22" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1347,21 +936,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:21">
+    <row r="3" spans="1:22" s="2" customFormat="1">
       <c r="A3" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>5</v>
@@ -1373,119 +962,101 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="2">
-        <v>1</v>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="19" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8EA66-06A7-4336-A23C-CD439663B6E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8527E1E-B49F-4E9B-A72A-DEF8655A8399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,35 +322,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>增加1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0%的攻击</t>
-    </r>
+    <t>增加20%的攻击</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p:0.1</t>
-    </r>
+    <t>Ap:0.2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -775,7 +751,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
@@ -962,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="2">
         <v>0</v>
@@ -1058,5 +1034,6 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\js\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8527E1E-B49F-4E9B-A72A-DEF8655A8399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25460" windowHeight="9440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
     <author>yang</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{FB99308F-3E63-48C4-8C98-1E83E17E3D18}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -43,9 +35,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -53,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -77,15 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{220CB6E7-AB52-4F8B-82E6-8A8F6FFE5BE4}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -93,9 +81,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -114,15 +100,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{AFDF1FBB-3EA7-4098-9498-9092B15AA3EB}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -130,9 +114,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -140,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -164,15 +146,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{CC763380-9DF2-4A8E-8D54-1AF92F6DEFBD}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -180,9 +160,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -196,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>id</t>
   </si>
@@ -237,12 +215,6 @@
     <t>isDiz</t>
   </si>
   <si>
-    <t>isSlience</t>
-  </si>
-  <si>
-    <t>isUnarm</t>
-  </si>
-  <si>
     <t>isAffect</t>
   </si>
   <si>
@@ -276,9 +248,18 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>低级强化</t>
+  </si>
+  <si>
     <t>bufficontest_png</t>
   </si>
   <si>
+    <t>增加20%的攻击</t>
+  </si>
+  <si>
+    <t>Ap:0.2</t>
+  </si>
+  <si>
     <t>属性列表</t>
   </si>
   <si>
@@ -316,25 +297,19 @@
   </si>
   <si>
     <t>MagicDamageReducePerc</t>
-  </si>
-  <si>
-    <t>低级强化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加20%的攻击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ap:0.2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,47 +331,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,13 +490,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,8 +506,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -445,9 +716,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -464,27 +977,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -742,19 +1299,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
@@ -766,17 +1323,17 @@
     <col min="10" max="10" width="9.375" style="3"/>
     <col min="11" max="11" width="13.375" style="3" customWidth="1"/>
     <col min="12" max="12" width="15" style="3" customWidth="1"/>
-    <col min="13" max="15" width="9.375" style="3"/>
-    <col min="16" max="16" width="8.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.25" style="3" customWidth="1"/>
-    <col min="19" max="20" width="9.375" style="3"/>
-    <col min="21" max="21" width="13.125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="24.875" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.375" style="3"/>
+    <col min="13" max="13" width="9.375" style="3"/>
+    <col min="14" max="14" width="8.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="3" customWidth="1"/>
+    <col min="17" max="18" width="9.375" style="3"/>
+    <col min="19" max="19" width="13.125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="24.875" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,10 +1349,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -813,117 +1370,105 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:20">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="2">
         <v>100001</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>1</v>
@@ -943,97 +1488,98 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>42</v>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="19" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\egret\l2\config\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B3DC49-21B8-4E4D-BEC7-114A986C0E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25460" windowHeight="9440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,19 +21,20 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Yang Liu</author>
     <author>yang</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -36,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1">
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,13 +75,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -82,6 +91,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -100,13 +110,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -115,6 +126,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -122,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1">
+    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -146,13 +158,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -161,6 +174,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -174,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -297,19 +311,21 @@
   </si>
   <si>
     <t>MagicDamageReducePerc</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位被眩晕，无法释放技能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -320,6 +336,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -327,161 +344,50 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,13 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,194 +412,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -716,251 +436,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,61 +465,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1299,19 +733,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
@@ -1333,7 +767,7 @@
     <col min="21" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" spans="1:20" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:20">
+    <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1457,7 +891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:12">
+    <row r="3" spans="1:20" s="2" customFormat="1">
       <c r="A3" s="2">
         <v>100001</v>
       </c>
@@ -1493,93 +927,124 @@
         <v>27</v>
       </c>
     </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3">
+        <v>100002</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="19" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config/xlsx/buff.xlsx
+++ b/config/xlsx/buff.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pers\code\egret\l2\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B3DC49-21B8-4E4D-BEC7-114A986C0E5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25455" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25460" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,20 +15,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yang Liu</author>
     <author>yang</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -43,7 +36,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -75,14 +67,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -91,7 +82,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -110,14 +100,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -126,7 +115,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -134,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -158,14 +146,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Yang Liu:</t>
@@ -174,7 +161,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -188,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>id</t>
   </si>
@@ -268,12 +254,54 @@
     <t>bufficontest_png</t>
   </si>
   <si>
-    <t>增加20%的攻击</t>
+    <t>增加20%的攻击(最高5层)</t>
   </si>
   <si>
     <t>Ap:0.2</t>
   </si>
   <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>该单位被眩晕，无法释放技能</t>
+  </si>
+  <si>
+    <t>物理减免</t>
+  </si>
+  <si>
+    <t>减少10%物理伤害</t>
+  </si>
+  <si>
+    <t>PysDamageReducePerc:0.1</t>
+  </si>
+  <si>
+    <t>魔法减免</t>
+  </si>
+  <si>
+    <t>减少10%魔法伤害</t>
+  </si>
+  <si>
+    <t>MagicDamageReducePerc:0.1</t>
+  </si>
+  <si>
+    <t>魔法终免</t>
+  </si>
+  <si>
+    <t>减少5点最终魔法伤害</t>
+  </si>
+  <si>
+    <t>MagicDamageReduceAbs:5</t>
+  </si>
+  <si>
+    <t>物理终免</t>
+  </si>
+  <si>
+    <t>减少5点最终物理伤害</t>
+  </si>
+  <si>
+    <t>PysDamageReduceAbs:5</t>
+  </si>
+  <si>
     <t>属性列表</t>
   </si>
   <si>
@@ -311,21 +339,19 @@
   </si>
   <si>
     <t>MagicDamageReducePerc</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>该单位被眩晕，无法释放技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,7 +362,6 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -344,50 +369,162 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,13 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,8 +549,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -436,9 +759,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -465,17 +1030,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -733,24 +1342,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.375" style="3"/>
     <col min="2" max="2" width="8.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="3" customWidth="1"/>
     <col min="5" max="7" width="9.375" style="3"/>
     <col min="8" max="8" width="11.875" style="3" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="3" customWidth="1"/>
@@ -767,7 +1380,7 @@
     <col min="21" max="16384" width="9.375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +1442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -891,17 +1504,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="2">
         <v>100001</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="b">
@@ -922,23 +1535,22 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
-        <v>100002</v>
+        <v>400003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -959,92 +1571,256 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4">
+        <v>400005</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>400005</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4">
+        <v>400006</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>400006</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4">
+        <v>400007</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>400007</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4">
+        <v>400008</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>400008</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:12">
+      <c r="A9" s="2">
+        <v>300008</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="19" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>